--- a/Libros/odmCocinado.xlsx
+++ b/Libros/odmCocinado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="3_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>Población con gastos inferiores a la línea de pobreza extrema</t>
   </si>
@@ -110,10 +110,7 @@
     <t>Relación entre empleo y población</t>
   </si>
   <si>
-    <t>Nota: población ocupada de 15 años o más como proporción de la población de 15 años o mas.</t>
-  </si>
-  <si>
-    <t>Este indicador muestra la capacidad de la economía de generar empleo. Es un indicador cuantitativo y no refleja la calidad del empleo a lo largo del tiempo, ya que se considera al total de la población ocupada.  Entre 2000 y 2014, la relación entre empleo y población se ha mantenido por encima del 60\%, variando de 62.7\% en el 2000 a 60.8\% en el 2014.</t>
+    <t>Nota: población ocupada de 15 años o más como proporción de la población de 15 años o mas. Este indicador muestra la capacidad de la economía de generar empleo. Es un indicador cuantitativo y no refleja la calidad del empleo a lo largo del tiempo, ya que se considera al total de la población ocupada.  Entre 2000 y 2014, la relación entre empleo y población se ha mantenido por encima del 60\%, variando de 62.7\% en el 2000 a 60.8\% en el 2014.</t>
   </si>
   <si>
     <t>Empleo pleno y productivo por área de residencia</t>
@@ -122,7 +119,7 @@
     <t>Relación entre empleo y población por área de residencia</t>
   </si>
   <si>
-    <t>Al desagregar por área de residencia se obtiene que la relación entre empleo y población es mayor en el área urbana que en el área rural, 62.8\% y 58.6\%, respectivamente. Es decir, que la capacidad de la economía para generar empleo es un poco mayor en el área urbana que en el área rural.</t>
+    <t>Nota: población ocupada de 15 años o más como proporción de la población de 15 años o mas. Al desagregar por área de residencia se obtiene que la relación entre empleo y población es mayor en el área urbana que en el área rural, 62.8\% y 58.6\%, respectivamente. Es decir, que la capacidad de la economía para generar empleo es un poco mayor en el área urbana que en el área rural.</t>
   </si>
   <si>
     <t>Empleo pleno y productivo en los departamentos</t>
@@ -131,7 +128,7 @@
     <t>Relación entre empleo y población por departamento</t>
   </si>
   <si>
-    <t>Los departamentos de Zacapa, Chimaltenango y Alta Verapaz, muestran una mayor capacidad para generar empleo, con una relación empleo-población por encima del 65\%, mientras que en los departamentos Jutiapa y El Progreso, la relación es menor al 55\%, es decir, más de cinco puntos porcentuales por debajo del promedio nacional.</t>
+    <t>\textollamada{Nota: población ocupada de 15 años o más como proporción de la población de 15 años o mas. }Los departamentos de Zacapa, Chimaltenango y Alta Verapaz, muestran una mayor capacidad para generar empleo, con una relación empleo-población por encima del 65\%, mientras que en los departamentos Jutiapa y El Progreso, la relación es menor al 55\%, es decir, más de cinco puntos porcentuales por debajo del promedio nacional.</t>
   </si>
   <si>
     <t>Población ocupada no asalariada</t>
@@ -140,9 +137,6 @@
     <t>Proporción de la población ocupada que trabaja por cuenta propia o en una empresa familiar</t>
   </si>
   <si>
-    <t>Nota: para la población ocupada de 15 años o más.</t>
-  </si>
-  <si>
     <t>La población ocupada no asalariada que trabaja por cuenta propia, no posee una relación contractual, ni goza de los beneficios de aguinaldo, bono 14, horas extras, etc., además de no tener acceso a seguridad social. Para 2014, poco más de la cuarta parte de los ocupados trabajaba de forma independiente, por cuenta propia. Esta proporción se ha venido reduciendo desde el año 2000, de  31.2\% a 26.4\% en 2014.</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>Proporción de mujeres entre los empleados remunerados en el sector no agrícola</t>
   </si>
   <si>
-    <t>Nota: mujeres ocupadas remuneradas en el sector no agrícola como proporción de la población ocupada remunerada en el sector no agrícola.</t>
-  </si>
-  <si>
     <t>Este indicador mide la igualdad de acceso al empleo remunerado e indica el grado de apertura de mujeres a los mercados de trabajo. Se puede observar, que la proporción de mujeres entre los empleados remunerados en el sector no agrícola, se ha mantenido cerca del 44\%, y para 2014 se redujo ligeramente a 43.\%. Es decir, es menor el acceso de las mujeres, en comparación con los hombres, al empleo remunerado.</t>
   </si>
   <si>
@@ -218,7 +209,7 @@
     <t>Proporción de mujeres entre los empleados remunerados en el sector no agrícola por departamento</t>
   </si>
   <si>
-    <t>El departamento de Zacapa muestra mayor acceso a las mujeres al empleo remunerado en el sector no agrícola, en comparación con los hombres. Así también, en los departamentos de Chiquimula, Jalapa, Santa Rosa, Chimaltenango y Alta Verapaz, el acceso al empleo remunerado es bastante similar entre hombres y mujeres. Las mayores desigualdades en el acceso al trabajo remunerado de las mujeres, se observa en los departamentos de Izabal y Totonicapán.</t>
+    <t>Nota: mujeres ocupadas remuneradas en el sector no agrícola como proporción de la población ocupada remunerada en el sector no agrícola. El departamento de Zacapa muestra mayor acceso a las mujeres al empleo remunerado en el sector no agrícola, en comparación con los hombres. Así también, en los departamentos de Chiquimula, Jalapa, Santa Rosa, Chimaltenango y Alta Verapaz, el acceso al empleo remunerado es bastante similar entre hombres y mujeres. Las mayores desigualdades en el acceso al trabajo remunerado de las mujeres, se observa en los departamentos de Izabal y Totonicapán.</t>
   </si>
   <si>
     <t>m </t>
@@ -230,9 +221,6 @@
     <t>Proporción de partos con asistencia de médico o ginecólogo</t>
   </si>
   <si>
-    <t>Nota: para los nacimientos de los cinco años anteriores a cada encuesta.</t>
-  </si>
-  <si>
     <t>Para 2014, más del 60\% de los partos fueron atendidos por un médico o ginecólogo. En la gráfica se advierte que entre 2000 y 2014, hubo un aumento en los partos atendidos por personal de salud especializado, de 39.9\% en el 2000 a 61.7\% en el 2014. Esto significó un aumento de más del 50\% en este período.</t>
   </si>
   <si>
@@ -242,10 +230,7 @@
     <t>Proporción de partos con asistencia de médico o ginecólogo por área de residencia</t>
   </si>
   <si>
-    <t>Nota: para los nacimientos de los cinco años anteriores a la encuesta.</t>
-  </si>
-  <si>
-    <t>Al desagregar la proporción de partos con asistencia de personal de salud especializado por área de residencia, se obtiene que tres de cada cuatro partos en el área urbana son atendidos por médico o ginecólogo, mientras que para el área rural, la relación es de  dos de cada cuatro partos.</t>
+    <t>Nota: para los nacimientos de los cinco años anteriores a la encuesta. Al desagregar la proporción de partos con asistencia de personal de salud especializado por área de residencia, se obtiene que tres de cada cuatro partos en el área urbana son atendidos por médico o ginecólogo, mientras que para el área rural, la relación es de  dos de cada cuatro partos.</t>
   </si>
   <si>
     <t>Partos con asistencia de personal de salud en los departamentos</t>
@@ -254,7 +239,7 @@
     <t>Proporción de partos con asistencia de médico o ginecólogo por departamento</t>
   </si>
   <si>
-    <t>En el departamento de Guatemala, más del 90\% de los partos son atendidos por médico o ginecólogo, mientras que en el departamento de Totonicapán, menos de la tercera parte de los partos son atendidos por un médico. Para el departamento de Quiché, uno de cada tres partos son atendidos por médico, mientras que en Huehuetenango y Alta Verapaz, poco más del 38\%.</t>
+    <t>Nota: para los nacimientos de los cinco años anteriores a la encuesta. En el departamento de Guatemala, más del 90\% de los partos son atendidos por médico o ginecólogo, mientras que en el departamento de Totonicapán, menos de la tercera parte de los partos son atendidos por un médico. Para el departamento de Quiché, uno de cada tres partos son atendidos por médico, mientras que en Huehuetenango y Alta Verapaz, poco más del 38\%.</t>
   </si>
   <si>
     <t>Atención del parto en centros públicos</t>
@@ -290,10 +275,7 @@
     <t>Proporción de la población con acceso a fuentes mejoradas de abastecimiento de agua potable</t>
   </si>
   <si>
-    <t>Nota: incluye tubería dentro de la vivienda, tubería fuera de la vivienda pero en el terreno y chorro público.</t>
-  </si>
-  <si>
-    <t>Para el año 2000, el 72.6\% de la población tenía acceso a mejores fuentes de abastecimiento de agua, que incluye acceso a agua por medio de tubería dentro y fuera de la vivienda y chorro público. De 2000 a 2006, el acceso a agua mejorada aumentó en más de seis puntos porcentuales, no obstante en 2011 se redujo a 75.3\%. Para 2014, se observó que el 77.8\% de los hogares tienen acceso a fuentes mejoradas de abastecimiento de agua.</t>
+    <t>Nota: incluye tubería dentro de la vivienda, tubería fuera de la vivienda pero en el terreno y chorro público. Para el año 2000, el 72.6\% de la población tenía acceso a mejores fuentes de abastecimiento de agua, que incluye acceso a agua por medio de tubería dentro y fuera de la vivienda y chorro público. De 2000 a 2006, el acceso a agua mejorada aumentó en más de seis puntos porcentuales, no obstante en 2011 se redujo a 75.3\%. Para 2014, se observó que el 77.8\% de los hogares tienen acceso a fuentes mejoradas de abastecimiento de agua.</t>
   </si>
   <si>
     <t>Acceso a agua mejorada por área de residencia</t>
@@ -302,7 +284,7 @@
     <t>Proporción de la población con acceso a fuentes mejoradas de abastecimiento de agua potable según área de residencia</t>
   </si>
   <si>
-    <t>Al desagregar por área de residencia se observa que es mayor el acceso a agua mejorada en el área urbana, ya que el 89.1\% tiene acceso a mejores fuentes de abastecimiento de agua, en comparación con el 64.4\% de población que tiene acceso en el área rural.</t>
+    <t>Nota: incluye tubería dentro de la vivienda, tubería fuera de la vivienda pero en el terreno y chorro público. Al desagregar por área de residencia se observa que es mayor el acceso a agua mejorada en el área urbana, ya que el 89.1\% tiene acceso a mejores fuentes de abastecimiento de agua, en comparación con el 64.4\% de población que tiene acceso en el área rural.</t>
   </si>
   <si>
     <t>Acceso a agua mejorada en los departamentos</t>
@@ -311,7 +293,7 @@
     <t>Proporción de la población con acceso a fuentes mejoradas de abastecimiento de agua potable por departamento</t>
   </si>
   <si>
-    <t>Los departamentos con mayor acceso a mejores fuentes de abastecimiento de agua, son los departamentos de Guatemala, Sacatepéquez y Sololá, con más del 90\% de acceso. Por otro lado, en el departamento de Alta Verapaz, menos de la mitad de la población tiene acceso a tubería dentro y fuera de la vivienda o  chorro público.</t>
+    <t>Nota: incluye tubería dentro de la vivienda, tubería fuera de la vivienda pero en el terreno y chorro público. Los departamentos con mayor acceso a mejores fuentes de abastecimiento de agua, son los departamentos de Guatemala, Sacatepéquez y Sololá, con más del 90\% de acceso. Por otro lado, en el departamento de Alta Verapaz, menos de la mitad de la población tiene acceso a tubería dentro y fuera de la vivienda o  chorro público.</t>
   </si>
   <si>
     <t>Acceso a saneamiento mejorado</t>
@@ -320,10 +302,7 @@
     <t>Proporción de la población con acceso a servicios de saneamiento mejorados</t>
   </si>
   <si>
-    <t>Nota: incluye inodoro conectado a red de drenaje, inodoro conectado a fosa séptica y excusado lavable.</t>
-  </si>
-  <si>
-    <t>Entre 2000 y 2014, el acceso a saneamiento mejorado que incluye inodoro conectado a red de drenaje, inodoro conectado a fosa séptica y excusado lavable, aumentó de 44.2\% a 58.3\%, esto significó un aumento de un 31.8\% en el acceso a saneamiento mejorado en este período de tiempo.</t>
+    <t>Nota: incluye inodoro conectado a red de drenaje, inodoro conectado a fosa séptica y excusado lavable. Entre 2000 y 2014, el acceso a saneamiento mejorado que incluye inodoro conectado a red de drenaje, inodoro conectado a fosa séptica y excusado lavable, aumentó de 44.2\% a 58.3\%, esto significó un aumento de un 31.8\% en el acceso a saneamiento mejorado en este período de tiempo.</t>
   </si>
   <si>
     <t>Acceso a saneamiento mejorado por área de residencia</t>
@@ -483,7 +462,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,26 +504,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.75"/>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,20 +533,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -581,26 +559,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.04591836734694"/>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,22 +588,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -647,7 +623,7 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -672,20 +648,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,47 +674,48 @@
     </row>
     <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,7 +725,7 @@
     </row>
     <row r="4" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -777,17 +757,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,7 +778,7 @@
     </row>
     <row r="4" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,25 +847,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8214285714286"/>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,18 +874,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -915,12 +947,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A13"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
@@ -928,7 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,78 +979,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="4" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1066,7 +1038,7 @@
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1083,25 +1055,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1122448979592"/>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,16 +1082,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1126,7 +1095,7 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1143,25 +1112,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,20 +1139,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1207,7 +1173,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,48 +1217,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1357,7 +1321,7 @@
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1374,26 +1338,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,20 +1367,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1426,27 +1441,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,75 +1473,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1547,7 +1509,7 @@
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1564,25 +1526,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,55 +1553,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,80 +1661,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="4" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1780,7 +1733,7 @@
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1797,25 +1750,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,14 +1777,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>91</v>
+    <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1848,30 +1850,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,63 +1882,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1981,13 +1937,14 @@
   </sheetPr>
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,9 +2020,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2112,9 +2070,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2153,7 +2112,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
@@ -2161,10 +2120,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,55 +2144,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.1530612244898"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,21 +2198,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2269,25 +2225,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,23 +2252,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="4" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2333,7 +2286,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2350,25 +2303,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1887755102041"/>
+  <dimension ref="A1:A65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,18 +2330,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
